--- a/turism.xlsx
+++ b/turism.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834580F2-914B-4E3D-AC09-5200B4648953}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CF2337-6F4B-426A-818D-0CFE4B080B81}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="228" windowWidth="14808" windowHeight="7896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="168">
   <si>
     <t>Число въездных туристских поездок иностранных граждан в Россию</t>
   </si>
@@ -649,6 +649,9 @@
   </si>
   <si>
     <t>Количество прибавших туристов в Россию</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество туристов посетивших в Россию </t>
   </si>
 </sst>
 </file>
@@ -5238,13 +5241,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F78AAA-C3EB-4E5E-9305-42E95A19E489}">
   <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
     <col min="6" max="6" width="14.109375" customWidth="1"/>
@@ -5321,6 +5325,9 @@
       </c>
     </row>
     <row r="2" spans="1:21">
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
       <c r="E2" s="53" t="s">
         <v>65</v>
       </c>
@@ -5368,6 +5375,9 @@
       </c>
     </row>
     <row r="3" spans="1:21">
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
       <c r="E3" s="53" t="s">
         <v>5</v>
       </c>
@@ -5415,6 +5425,9 @@
       </c>
     </row>
     <row r="4" spans="1:21">
+      <c r="B4" t="s">
+        <v>167</v>
+      </c>
       <c r="E4" s="53" t="s">
         <v>6</v>
       </c>
@@ -5462,6 +5475,9 @@
       </c>
     </row>
     <row r="5" spans="1:21">
+      <c r="B5" t="s">
+        <v>167</v>
+      </c>
       <c r="E5" s="53" t="s">
         <v>7</v>
       </c>
@@ -5509,6 +5525,9 @@
       </c>
     </row>
     <row r="6" spans="1:21">
+      <c r="B6" t="s">
+        <v>167</v>
+      </c>
       <c r="E6" s="53" t="s">
         <v>8</v>
       </c>
@@ -5556,6 +5575,9 @@
       </c>
     </row>
     <row r="7" spans="1:21">
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
       <c r="E7" s="53" t="s">
         <v>9</v>
       </c>
@@ -5603,6 +5625,9 @@
       </c>
     </row>
     <row r="8" spans="1:21">
+      <c r="B8" t="s">
+        <v>167</v>
+      </c>
       <c r="E8" s="53" t="s">
         <v>10</v>
       </c>
@@ -5650,6 +5675,9 @@
       </c>
     </row>
     <row r="9" spans="1:21">
+      <c r="B9" t="s">
+        <v>167</v>
+      </c>
       <c r="E9" s="53" t="s">
         <v>11</v>
       </c>
@@ -5697,6 +5725,9 @@
       </c>
     </row>
     <row r="10" spans="1:21">
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
       <c r="E10" s="53" t="s">
         <v>12</v>
       </c>
@@ -5744,6 +5775,9 @@
       </c>
     </row>
     <row r="11" spans="1:21">
+      <c r="B11" t="s">
+        <v>167</v>
+      </c>
       <c r="E11" s="53" t="s">
         <v>13</v>
       </c>
@@ -5791,6 +5825,9 @@
       </c>
     </row>
     <row r="12" spans="1:21">
+      <c r="B12" t="s">
+        <v>167</v>
+      </c>
       <c r="E12" s="53" t="s">
         <v>14</v>
       </c>
@@ -5838,6 +5875,9 @@
       </c>
     </row>
     <row r="13" spans="1:21">
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
       <c r="E13" s="53" t="s">
         <v>15</v>
       </c>
@@ -5885,6 +5925,9 @@
       </c>
     </row>
     <row r="14" spans="1:21">
+      <c r="B14" t="s">
+        <v>167</v>
+      </c>
       <c r="E14" s="53" t="s">
         <v>16</v>
       </c>
@@ -5932,6 +5975,9 @@
       </c>
     </row>
     <row r="15" spans="1:21">
+      <c r="B15" t="s">
+        <v>167</v>
+      </c>
       <c r="E15" s="53" t="s">
         <v>66</v>
       </c>
@@ -5979,6 +6025,9 @@
       </c>
     </row>
     <row r="16" spans="1:21">
+      <c r="B16" t="s">
+        <v>167</v>
+      </c>
       <c r="E16" s="53" t="s">
         <v>17</v>
       </c>
@@ -6025,7 +6074,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="5:21">
+    <row r="17" spans="2:21">
+      <c r="B17" t="s">
+        <v>167</v>
+      </c>
       <c r="E17" s="53" t="s">
         <v>18</v>
       </c>
@@ -6072,7 +6124,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="5:21">
+    <row r="18" spans="2:21">
+      <c r="B18" t="s">
+        <v>167</v>
+      </c>
       <c r="E18" s="53" t="s">
         <v>19</v>
       </c>
@@ -6119,7 +6174,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="5:21">
+    <row r="19" spans="2:21">
+      <c r="B19" t="s">
+        <v>167</v>
+      </c>
       <c r="E19" s="53" t="s">
         <v>20</v>
       </c>
@@ -6166,7 +6224,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="5:21">
+    <row r="20" spans="2:21">
+      <c r="B20" t="s">
+        <v>167</v>
+      </c>
       <c r="E20" s="53" t="s">
         <v>21</v>
       </c>
@@ -6213,7 +6274,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="5:21">
+    <row r="21" spans="2:21">
+      <c r="B21" t="s">
+        <v>167</v>
+      </c>
       <c r="E21" s="53" t="s">
         <v>22</v>
       </c>
@@ -6260,7 +6324,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="5:21">
+    <row r="22" spans="2:21">
+      <c r="B22" t="s">
+        <v>167</v>
+      </c>
       <c r="E22" s="53" t="s">
         <v>67</v>
       </c>
@@ -6307,7 +6374,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="5:21">
+    <row r="23" spans="2:21">
+      <c r="B23" t="s">
+        <v>167</v>
+      </c>
       <c r="E23" s="53" t="s">
         <v>23</v>
       </c>
@@ -6354,7 +6424,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="5:21" ht="27.6">
+    <row r="24" spans="2:21" ht="27.6">
+      <c r="B24" t="s">
+        <v>167</v>
+      </c>
       <c r="E24" s="53" t="s">
         <v>24</v>
       </c>
@@ -6401,7 +6474,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="5:21">
+    <row r="25" spans="2:21">
+      <c r="B25" t="s">
+        <v>167</v>
+      </c>
       <c r="E25" s="53" t="s">
         <v>25</v>
       </c>
@@ -6448,7 +6524,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="5:21">
+    <row r="26" spans="2:21">
+      <c r="B26" t="s">
+        <v>167</v>
+      </c>
       <c r="E26" s="53" t="s">
         <v>26</v>
       </c>
@@ -6495,7 +6574,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="5:21">
+    <row r="27" spans="2:21">
+      <c r="B27" t="s">
+        <v>167</v>
+      </c>
       <c r="E27" s="53" t="s">
         <v>27</v>
       </c>
@@ -6542,7 +6624,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="5:21">
+    <row r="28" spans="2:21">
+      <c r="B28" t="s">
+        <v>167</v>
+      </c>
       <c r="E28" s="53" t="s">
         <v>28</v>
       </c>
@@ -6589,7 +6674,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="5:21">
+    <row r="29" spans="2:21">
+      <c r="B29" t="s">
+        <v>167</v>
+      </c>
       <c r="E29" s="53" t="s">
         <v>29</v>
       </c>
@@ -6636,7 +6724,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="5:21">
+    <row r="30" spans="2:21">
+      <c r="B30" t="s">
+        <v>167</v>
+      </c>
       <c r="E30" s="53" t="s">
         <v>30</v>
       </c>
@@ -6683,7 +6774,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="5:21">
+    <row r="31" spans="2:21">
+      <c r="B31" t="s">
+        <v>167</v>
+      </c>
       <c r="E31" s="53" t="s">
         <v>31</v>
       </c>
@@ -6730,7 +6824,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="32" spans="5:21">
+    <row r="32" spans="2:21">
+      <c r="B32" t="s">
+        <v>167</v>
+      </c>
       <c r="E32" s="53" t="s">
         <v>32</v>
       </c>
@@ -6777,7 +6874,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="5:21">
+    <row r="33" spans="2:21">
+      <c r="B33" t="s">
+        <v>167</v>
+      </c>
       <c r="E33" s="53" t="s">
         <v>33</v>
       </c>
@@ -6824,7 +6924,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="5:21">
+    <row r="34" spans="2:21">
+      <c r="B34" t="s">
+        <v>167</v>
+      </c>
       <c r="E34" s="53" t="s">
         <v>34</v>
       </c>
@@ -6871,7 +6974,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="5:21">
+    <row r="35" spans="2:21">
+      <c r="B35" t="s">
+        <v>167</v>
+      </c>
       <c r="E35" s="53" t="s">
         <v>73</v>
       </c>
@@ -6918,7 +7024,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="5:21">
+    <row r="36" spans="2:21">
+      <c r="B36" t="s">
+        <v>167</v>
+      </c>
       <c r="E36" s="53" t="s">
         <v>35</v>
       </c>
@@ -6965,7 +7074,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="5:21">
+    <row r="37" spans="2:21">
+      <c r="B37" t="s">
+        <v>167</v>
+      </c>
       <c r="E37" s="53" t="s">
         <v>36</v>
       </c>
@@ -7012,7 +7124,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="5:21">
+    <row r="38" spans="2:21">
+      <c r="B38" t="s">
+        <v>167</v>
+      </c>
       <c r="E38" s="53" t="s">
         <v>37</v>
       </c>
@@ -7059,7 +7174,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="5:21">
+    <row r="39" spans="2:21">
+      <c r="B39" t="s">
+        <v>167</v>
+      </c>
       <c r="E39" s="53" t="s">
         <v>38</v>
       </c>
@@ -7106,7 +7224,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="5:21" ht="27.6">
+    <row r="40" spans="2:21" ht="27.6">
+      <c r="B40" t="s">
+        <v>167</v>
+      </c>
       <c r="E40" s="53" t="s">
         <v>138</v>
       </c>
@@ -7153,7 +7274,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="5:21">
+    <row r="41" spans="2:21">
+      <c r="B41" t="s">
+        <v>167</v>
+      </c>
       <c r="E41" s="53" t="s">
         <v>39</v>
       </c>
@@ -7200,7 +7324,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="5:21">
+    <row r="42" spans="2:21">
+      <c r="B42" t="s">
+        <v>167</v>
+      </c>
       <c r="E42" s="53" t="s">
         <v>40</v>
       </c>
@@ -7247,7 +7374,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="5:21">
+    <row r="43" spans="2:21">
+      <c r="B43" t="s">
+        <v>167</v>
+      </c>
       <c r="E43" s="53" t="s">
         <v>41</v>
       </c>
@@ -7294,7 +7424,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="5:21">
+    <row r="44" spans="2:21">
+      <c r="B44" t="s">
+        <v>167</v>
+      </c>
       <c r="E44" s="53" t="s">
         <v>42</v>
       </c>
@@ -7341,7 +7474,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="5:21">
+    <row r="45" spans="2:21">
+      <c r="B45" t="s">
+        <v>167</v>
+      </c>
       <c r="E45" s="53" t="s">
         <v>43</v>
       </c>
@@ -7388,7 +7524,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="5:21">
+    <row r="46" spans="2:21">
+      <c r="B46" t="s">
+        <v>167</v>
+      </c>
       <c r="E46" s="54" t="s">
         <v>44</v>
       </c>
@@ -7435,7 +7574,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="5:21">
+    <row r="47" spans="2:21">
+      <c r="B47" t="s">
+        <v>167</v>
+      </c>
       <c r="E47" s="54" t="s">
         <v>45</v>
       </c>
@@ -7482,7 +7624,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="48" spans="5:21">
+    <row r="48" spans="2:21">
+      <c r="B48" t="s">
+        <v>167</v>
+      </c>
       <c r="E48" s="54" t="s">
         <v>46</v>
       </c>
@@ -7529,7 +7674,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="5:21" ht="27.6">
+    <row r="49" spans="2:21" ht="27.6">
+      <c r="B49" t="s">
+        <v>167</v>
+      </c>
       <c r="E49" s="54" t="s">
         <v>47</v>
       </c>
@@ -7576,7 +7724,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="50" spans="5:21">
+    <row r="50" spans="2:21">
+      <c r="B50" t="s">
+        <v>167</v>
+      </c>
       <c r="E50" s="54" t="s">
         <v>48</v>
       </c>
@@ -7623,7 +7774,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="5:21">
+    <row r="51" spans="2:21">
+      <c r="B51" t="s">
+        <v>167</v>
+      </c>
       <c r="E51" s="54" t="s">
         <v>49</v>
       </c>
@@ -7670,7 +7824,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="5:21">
+    <row r="52" spans="2:21">
+      <c r="B52" t="s">
+        <v>167</v>
+      </c>
       <c r="E52" s="54" t="s">
         <v>50</v>
       </c>
@@ -7717,7 +7874,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="53" spans="5:21">
+    <row r="53" spans="2:21">
+      <c r="B53" t="s">
+        <v>167</v>
+      </c>
       <c r="E53" s="54" t="s">
         <v>51</v>
       </c>
@@ -7764,7 +7924,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="5:21">
+    <row r="54" spans="2:21">
+      <c r="B54" t="s">
+        <v>167</v>
+      </c>
       <c r="E54" s="54" t="s">
         <v>52</v>
       </c>
@@ -7811,7 +7974,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="5:21">
+    <row r="55" spans="2:21">
+      <c r="B55" t="s">
+        <v>167</v>
+      </c>
       <c r="E55" s="54" t="s">
         <v>53</v>
       </c>
@@ -7858,7 +8024,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="5:21">
+    <row r="56" spans="2:21">
+      <c r="B56" t="s">
+        <v>167</v>
+      </c>
       <c r="E56" s="54" t="s">
         <v>74</v>
       </c>
@@ -7905,7 +8074,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="5:21">
+    <row r="57" spans="2:21">
+      <c r="B57" t="s">
+        <v>167</v>
+      </c>
       <c r="E57" s="54" t="s">
         <v>54</v>
       </c>
@@ -7952,7 +8124,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="5:21">
+    <row r="58" spans="2:21">
+      <c r="B58" t="s">
+        <v>167</v>
+      </c>
       <c r="E58" s="54" t="s">
         <v>55</v>
       </c>
@@ -7999,7 +8174,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="59" spans="5:21">
+    <row r="59" spans="2:21">
+      <c r="B59" t="s">
+        <v>167</v>
+      </c>
       <c r="E59" s="54" t="s">
         <v>56</v>
       </c>
@@ -8046,7 +8224,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="5:21">
+    <row r="60" spans="2:21">
+      <c r="B60" t="s">
+        <v>167</v>
+      </c>
       <c r="E60" s="54" t="s">
         <v>57</v>
       </c>
@@ -8093,7 +8274,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="5:21">
+    <row r="61" spans="2:21">
+      <c r="B61" t="s">
+        <v>167</v>
+      </c>
       <c r="E61" s="54" t="s">
         <v>71</v>
       </c>
@@ -8140,7 +8324,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="5:21">
+    <row r="62" spans="2:21">
+      <c r="B62" t="s">
+        <v>167</v>
+      </c>
       <c r="E62" s="54" t="s">
         <v>58</v>
       </c>
@@ -8187,7 +8374,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="5:21">
+    <row r="63" spans="2:21">
+      <c r="B63" t="s">
+        <v>167</v>
+      </c>
       <c r="E63" s="54" t="s">
         <v>59</v>
       </c>
@@ -8234,7 +8424,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="64" spans="5:21">
+    <row r="64" spans="2:21">
+      <c r="B64" t="s">
+        <v>167</v>
+      </c>
       <c r="E64" s="54" t="s">
         <v>60</v>
       </c>
@@ -8281,7 +8474,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="5:21">
+    <row r="65" spans="2:21">
+      <c r="B65" t="s">
+        <v>167</v>
+      </c>
       <c r="E65" s="54" t="s">
         <v>61</v>
       </c>
@@ -8328,7 +8524,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="66" spans="5:21" ht="27.6">
+    <row r="66" spans="2:21" ht="27.6">
+      <c r="B66" t="s">
+        <v>167</v>
+      </c>
       <c r="E66" s="54" t="s">
         <v>62</v>
       </c>
@@ -8375,7 +8574,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="67" spans="5:21">
+    <row r="67" spans="2:21">
+      <c r="B67" t="s">
+        <v>167</v>
+      </c>
       <c r="E67" s="53" t="s">
         <v>63</v>
       </c>
@@ -8422,7 +8624,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="68" spans="5:21">
+    <row r="68" spans="2:21">
+      <c r="B68" t="s">
+        <v>167</v>
+      </c>
       <c r="E68" s="55" t="s">
         <v>64</v>
       </c>

--- a/turism.xlsx
+++ b/turism.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CF2337-6F4B-426A-818D-0CFE4B080B81}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F3F05E-6670-444F-9AE8-AA0C35609600}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="228" windowWidth="14808" windowHeight="7896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="169">
   <si>
     <t>Число въездных туристских поездок иностранных граждан в Россию</t>
   </si>
@@ -652,6 +652,9 @@
   </si>
   <si>
     <t xml:space="preserve">Количество туристов посетивших в Россию </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество туристов посетивших Россию </t>
   </si>
 </sst>
 </file>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="2" spans="1:21">
       <c r="B2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E2" s="53" t="s">
         <v>65</v>
